--- a/tests/pandas/operators/date_proximity/basic/merge_partial_expected_result.xlsx
+++ b/tests/pandas/operators/date_proximity/basic/merge_partial_expected_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/lavalinker/tests/pandas/operators/date_proximity/basic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/macpie/tests/pandas/operators/date_proximity/basic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C04EB20-7426-424C-B10C-E1D86B7E25AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F6ABA6-E62B-5143-9BEB-F0337A9A3FBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45680" yWindow="11060" windowWidth="18620" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45680" yWindow="10140" windowWidth="18620" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
-  <si>
-    <t>PIDN_link</t>
-  </si>
-  <si>
-    <t>DCDate_link</t>
-  </si>
-  <si>
-    <t>InstrID_link</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>PIDN</t>
   </si>
@@ -52,18 +43,6 @@
     <t>Col6</t>
   </si>
   <si>
-    <t>_merge</t>
-  </si>
-  <si>
-    <t>_diff_days</t>
-  </si>
-  <si>
-    <t>_abs_diff_days</t>
-  </si>
-  <si>
-    <t>_duplicates</t>
-  </si>
-  <si>
     <t>FAQ</t>
   </si>
   <si>
@@ -74,6 +53,24 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>_mp_merge</t>
+  </si>
+  <si>
+    <t>_mp_diff_days</t>
+  </si>
+  <si>
+    <t>_mp_abs_diff_days</t>
+  </si>
+  <si>
+    <t>PIDN_x</t>
+  </si>
+  <si>
+    <t>DCDate_x</t>
+  </si>
+  <si>
+    <t>InstrID_x</t>
   </si>
 </sst>
 </file>
@@ -81,7 +78,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -137,7 +134,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -454,57 +451,53 @@
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -514,11 +507,8 @@
       <c r="C2">
         <v>11</v>
       </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -535,7 +525,7 @@
         <v>37302</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>21</v>
@@ -544,13 +534,13 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L3">
         <v>13</v>
@@ -558,11 +548,8 @@
       <c r="M3">
         <v>13</v>
       </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -572,11 +559,8 @@
       <c r="C4">
         <v>13</v>
       </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -593,7 +577,7 @@
         <v>38078</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -602,13 +586,13 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L5">
         <v>-3</v>
@@ -616,11 +600,8 @@
       <c r="M5">
         <v>3</v>
       </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -637,7 +618,7 @@
         <v>38078</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>23</v>
@@ -646,13 +627,13 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L6">
         <v>-3</v>
@@ -660,11 +641,8 @@
       <c r="M6">
         <v>3</v>
       </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -674,22 +652,16 @@
       <c r="C7">
         <v>16</v>
       </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="C8">
         <v>17</v>
       </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -699,11 +671,8 @@
       <c r="C9">
         <v>18</v>
       </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -720,7 +689,7 @@
         <v>38883</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>26</v>
@@ -729,13 +698,13 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J10">
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>9</v>
@@ -743,11 +712,8 @@
       <c r="M10">
         <v>9</v>
       </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -757,11 +723,8 @@
       <c r="C11">
         <v>20</v>
       </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -771,19 +734,13 @@
       <c r="C12">
         <v>21</v>
       </c>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="C13">
         <v>22</v>
-      </c>
-      <c r="N13" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
